--- a/F405_WING_BOM.xlsx
+++ b/F405_WING_BOM.xlsx
@@ -7,19 +7,19 @@
     <workbookView xWindow="80" yWindow="30" windowWidth="38330" windowHeight="20720"/>
   </bookViews>
   <sheets>
-    <sheet name="F405_WING_BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="F405_WING_BOMd" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">F405_WING_BOM!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">F405_WING_BOMd!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="159">
   <si>
     <t>Comment</t>
   </si>
@@ -75,13 +75,13 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C4, C5, C9, C10, C18, C20, C21, C23, C24, C25, C26, C27, C30, C31, C32, C33, C34, C35, C37</t>
+    <t>C4, C7, C9, C10, C18, C20, C21, C23, C24, C25, C26, C27, C30, C31, C32, C33, C34, C35, C37</t>
   </si>
   <si>
     <t>10nF</t>
   </si>
   <si>
-    <t>C6, C7, C17, C28</t>
+    <t>C5, C6, C17, C28</t>
   </si>
   <si>
     <t>150P</t>
@@ -114,6 +114,9 @@
     <t>SMA</t>
   </si>
   <si>
+    <t>SS14</t>
+  </si>
+  <si>
     <t>S4</t>
   </si>
   <si>
@@ -129,7 +132,7 @@
     <t>D3</t>
   </si>
   <si>
-    <t>RGB-3528_MK</t>
+    <t>LED-3528</t>
   </si>
   <si>
     <t>RGB_3528</t>
@@ -234,6 +237,9 @@
     <t>L1</t>
   </si>
   <si>
+    <t>CD104</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
@@ -435,6 +441,9 @@
     <t>USB-5P</t>
   </si>
   <si>
+    <t>微型USB母座</t>
+  </si>
+  <si>
     <t>USB1</t>
   </si>
   <si>
@@ -469,6 +478,18 @@
   </si>
   <si>
     <t>XTAL-4P</t>
+  </si>
+  <si>
+    <t>DC降压芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSD叠加芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路反相器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>气压传感器</t>
@@ -479,39 +500,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单路反相器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSD叠加芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC降压芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.3VLDO芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立式微型USB母座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3528贴片RGB彩灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,14 +883,14 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" customWidth="1"/>
+    <col min="3" max="3" width="84.6328125" customWidth="1"/>
     <col min="4" max="6" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -925,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="28">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -985,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29.5" customHeight="1">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1088,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1107,19 +1096,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1127,19 +1116,17 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1147,19 +1134,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
@@ -1167,19 +1154,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1187,39 +1174,39 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="42">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3">
         <v>9</v>
@@ -1227,19 +1214,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1247,19 +1234,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -1267,39 +1254,39 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.5" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28">
-      <c r="A20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F20" s="3">
         <v>10</v>
@@ -1307,19 +1294,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -1327,59 +1314,59 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="28" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F23" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="28">
       <c r="A24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
@@ -1387,19 +1374,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -1407,19 +1394,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
@@ -1427,19 +1414,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -1447,39 +1434,39 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="41" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F29" s="3">
         <v>20</v>
@@ -1487,19 +1474,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
@@ -1507,19 +1494,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
@@ -1527,19 +1514,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F32" s="3">
         <v>4</v>
@@ -1547,19 +1534,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F33" s="3">
         <v>2</v>
@@ -1567,19 +1554,19 @@
     </row>
     <row r="34" spans="1:6" ht="28">
       <c r="A34" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -1587,19 +1574,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -1607,19 +1594,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F36" s="3">
         <v>3</v>
@@ -1627,19 +1614,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -1647,19 +1634,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -1667,19 +1654,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
@@ -1687,19 +1674,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -1707,19 +1694,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
@@ -1727,19 +1714,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -1747,19 +1734,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
@@ -1767,19 +1754,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
@@ -1787,19 +1774,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>

--- a/F405_WING_BOM.xlsx
+++ b/F405_WING_BOM.xlsx
@@ -7,19 +7,19 @@
     <workbookView xWindow="80" yWindow="30" windowWidth="38330" windowHeight="20720"/>
   </bookViews>
   <sheets>
-    <sheet name="F405_WING_BOMd" sheetId="1" r:id="rId1"/>
+    <sheet name="F405_WING_BOM" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">F405_WING_BOMd!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">F405_WING_BOM!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="164">
   <si>
     <t>Comment</t>
   </si>
@@ -45,7 +45,7 @@
     <t>无极性贴片电容</t>
   </si>
   <si>
-    <t>C1, C8, C11, C19, C22, C29</t>
+    <t>C1, C8, C11, C18, C21, C28</t>
   </si>
   <si>
     <t>C 0603_L</t>
@@ -75,13 +75,13 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C4, C7, C9, C10, C18, C20, C21, C23, C24, C25, C26, C27, C30, C31, C32, C33, C34, C35, C37</t>
+    <t>C4, C7, C9, C10, C16, C19, C20, C22, C23, C24, C25, C26, C29, C30, C31, C32, C33, C34, C36</t>
   </si>
   <si>
     <t>10nF</t>
   </si>
   <si>
-    <t>C5, C6, C17, C28</t>
+    <t>C5, C6, C17, C27</t>
   </si>
   <si>
     <t>150P</t>
@@ -93,13 +93,13 @@
     <t>47uF</t>
   </si>
   <si>
-    <t>C15, C16</t>
+    <t>C15</t>
   </si>
   <si>
     <t>2.2nF</t>
   </si>
   <si>
-    <t>C36</t>
+    <t>C35</t>
   </si>
   <si>
     <t>SS34</t>
@@ -258,13 +258,28 @@
     <t>8050-SMD</t>
   </si>
   <si>
+    <t>SS8550</t>
+  </si>
+  <si>
+    <t>高频放大-PNP型</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>SOT23-3N</t>
+  </si>
+  <si>
+    <t>8550-SMD</t>
+  </si>
+  <si>
     <t>10K</t>
   </si>
   <si>
     <t>贴片电阻</t>
   </si>
   <si>
-    <t>R1, R2, R3, R8, R12, R18, R20, R29, R30</t>
+    <t>R1, R2, R3, R8, R12, R18, R20, R21, R30, R31</t>
   </si>
   <si>
     <t>R 0402_L</t>
@@ -306,7 +321,7 @@
     <t>100R</t>
   </si>
   <si>
-    <t>R13, R21, R22, R23, R24, R25, R26, R27, R28, R31, R32, R33, R34, R35, R36, R37, R38, R41, R46, R47</t>
+    <t>R13, R22, R23, R24, R25, R26, R27, R28, R29, R32, R33, R34, R35, R36, R37, R38, R39, R42, R47, R48</t>
   </si>
   <si>
     <t>22R</t>
@@ -318,13 +333,13 @@
     <t>75R</t>
   </si>
   <si>
-    <t>R39, R40</t>
+    <t>R40, R41</t>
   </si>
   <si>
     <t>4.7K</t>
   </si>
   <si>
-    <t>R42, R43, R44, R45</t>
+    <t>R43, R44, R45, R46</t>
   </si>
   <si>
     <t>100R*4</t>
@@ -333,7 +348,7 @@
     <t>贴片网络排阻</t>
   </si>
   <si>
-    <t>R48, R49</t>
+    <t>R49, R50</t>
   </si>
   <si>
     <t>RCA-8P4R-0402</t>
@@ -375,6 +390,9 @@
     <t>LP2985</t>
   </si>
   <si>
+    <t>LDO降压IC</t>
+  </si>
+  <si>
     <t>U1, U4, U5</t>
   </si>
   <si>
@@ -402,6 +420,9 @@
     <t>MP4560</t>
   </si>
   <si>
+    <t>5A DC-DC电源芯片</t>
+  </si>
+  <si>
     <t>U3</t>
   </si>
   <si>
@@ -411,6 +432,9 @@
     <t>AT7456</t>
   </si>
   <si>
+    <t>OSD叠加芯片</t>
+  </si>
+  <si>
     <t>U6</t>
   </si>
   <si>
@@ -420,18 +444,27 @@
     <t>SN74LVC1G04</t>
   </si>
   <si>
+    <t>单路反相器</t>
+  </si>
+  <si>
     <t>U7</t>
   </si>
   <si>
     <t>MS5611</t>
   </si>
   <si>
+    <t>气压计</t>
+  </si>
+  <si>
     <t>U8</t>
   </si>
   <si>
     <t>MPU6000</t>
   </si>
   <si>
+    <t>姿态传感器</t>
+  </si>
+  <si>
     <t>U9</t>
   </si>
   <si>
@@ -478,30 +511,6 @@
   </si>
   <si>
     <t>XTAL-4P</t>
-  </si>
-  <si>
-    <t>DC降压芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSD叠加芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单路反相器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气压传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姿态传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3VLDO芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -881,17 +890,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="84.6328125" customWidth="1"/>
-    <col min="4" max="6" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="85.1796875" customWidth="1"/>
+    <col min="4" max="5" width="18.81640625" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -974,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1">
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1051,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1272,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.5" customHeight="1">
+    <row r="20" spans="1:6" ht="11" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
@@ -1332,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28" customHeight="1">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
@@ -1349,164 +1357,164 @@
         <v>83</v>
       </c>
       <c r="F23" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28">
+      <c r="A25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="C25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="3">
         <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" customHeight="1">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="38.5" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="3">
         <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
@@ -1514,45 +1522,45 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>107</v>
       </c>
@@ -1569,10 +1577,10 @@
         <v>111</v>
       </c>
       <c r="F34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28">
       <c r="A35" s="3" t="s">
         <v>112</v>
       </c>
@@ -1597,56 +1605,56 @@
         <v>117</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F36" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F37" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -1654,19 +1662,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
@@ -1674,19 +1682,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -1694,19 +1702,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
@@ -1714,19 +1722,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -1734,19 +1742,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
@@ -1754,19 +1762,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
@@ -1774,21 +1782,41 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1796,7 +1824,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
 
